--- a/back-up/Report.xlsx
+++ b/back-up/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priot\Documents\An 4\Sem I\IA\Tema1\back-up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B849761-B349-4C4D-A926-F8321B9B3D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A0C70-B43A-4690-8114-2D6B1B3D78C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A_star" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t>Time mean</t>
   </si>
@@ -290,6 +290,30 @@
   </si>
   <si>
     <t>20.0%</t>
+  </si>
+  <si>
+    <t>4-easyManhattan distance + linear conflicts 500</t>
+  </si>
+  <si>
+    <t>5-easyManhattan distance + linear conflicts 500</t>
+  </si>
+  <si>
+    <t>6-easyManhattan distance + linear conflicts 500</t>
+  </si>
+  <si>
+    <t>4-normalManhattan distance + linear conflicts 500</t>
+  </si>
+  <si>
+    <t>4-easyManhattan distance 500</t>
+  </si>
+  <si>
+    <t>5-easyManhattan distance 500</t>
+  </si>
+  <si>
+    <t>6-easyManhattan distance 500</t>
+  </si>
+  <si>
+    <t>4-normalManhattan distance 500</t>
   </si>
 </sst>
 </file>
@@ -697,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -877,7 +901,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="65.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -943,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1644,9 +1668,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1914,6 +1940,70 @@
         <v>20</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
